--- a/DATA/Terms.xlsx
+++ b/DATA/Terms.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\FIBOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\FIBOT\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A1841553-60F4-43B6-95F9-8204ADD57505}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FA8AB8F-B39A-433F-8CE6-9CEDD6DCFBE2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>환매</t>
   </si>
   <si>
-    <t>순자산가치/NAV</t>
-  </si>
-  <si>
     <t>금융투자협회</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>금융투자회사</t>
   </si>
   <si>
-    <t>단기금융펀드/MMF</t>
-  </si>
-  <si>
     <t>부동산펀드</t>
   </si>
   <si>
@@ -546,30 +540,18 @@
     <t xml:space="preserve">컴퓨터에 저장된 프로그램에 따라, 주식시장에서 특정 조건이 갖춰지면 컴퓨터가 자동으로 매매주문을 내는 기법입니다. 일시에 여러 종목을 대량 매매할 수 있는 매매 형태이기도 한답니다. </t>
   </si>
   <si>
-    <t>이엘에스/ELS</t>
-  </si>
-  <si>
     <t>Equity Linked Security의 약자입니다. 보통 채권과 옵션상품을 결합하여 일정조건 충족시 원금이 보장되면서 연계지수 상승에 따른 추가수익을 기대할 수 있는 장외파생상품입니다. 금융감독원으로부터 장외파생상품 인가를 받은 증권사만이 발행할 수 있답니다.</t>
   </si>
   <si>
-    <t>상장지수펀드/ETF</t>
-  </si>
-  <si>
     <t>KOSPI와 같은 특정 지수 에 연동되어 동일 수익률로 움직이도록 설계된 일종의 INDEX펀드입니다. 동시에 거래소등에서 주식과 같이 거래할 수 있어 투자금액 회수가 자유롭습니다.</t>
   </si>
   <si>
     <t>크라우드펀딩은 군중 또는 다수를 의미하는 영어단어 crowd 와 자금조달을 뜻하는 funding 을 조합한 용어로, 창의적 기업가를 비롯한 자금수요자가 인터넷 등의 온라인상에서 자금모집을 중개하는 자를 통하여 불특정 다수의 소액투자자로부터 자금을 조달하는 행위를 뜻합니다. 자금모집 및 보상방식에 따라 통상 기부 또는 후원형, 대출형, 증권형 또는 투자형으로 구분된다.</t>
   </si>
   <si>
-    <t>주당순이익/EPS</t>
-  </si>
-  <si>
     <t>기업이 1주당 순이익을 얼마나 냈는가를 말해주는 지표예요.</t>
   </si>
   <si>
-    <t>주가순이익비율/PER</t>
-  </si>
-  <si>
     <t>주당순이익 1원당 주가가 몇배 수준에서 형성되고 있는지를 나타내는 지표랍니다.</t>
   </si>
   <si>
@@ -582,12 +564,6 @@
     <t>차주의 금융부채 원리금 상환액이 소득에서 차지하는 비율을 의미해요. 담보대출을 취급하는 하나의 기준이예요.</t>
   </si>
   <si>
-    <t>총부채상환비율/DTI</t>
-  </si>
-  <si>
-    <t>모바일 거래시스템/MTS</t>
-  </si>
-  <si>
     <t>주식가격과 발행주식수를 곱한 시가총액을 기준시점과 비교하여 지수를 표시하는 방식의 주가지수를 말합니다. 상반되는 개념으로 가격평균식 주가지수가 있습니다.</t>
   </si>
   <si>
@@ -606,15 +582,6 @@
     <t>자본시장 및 금융투자업에 관한 법률의 줄임말입니다. 증권거래법과 간접투자자산운용법 등 기존에 금융투자시장을 규율하던 여러 법률을 통합하여 2009년 2월4일부터 시행되고 있는 법률입니다.</t>
   </si>
   <si>
-    <t>주가연계펀드/ELF</t>
-  </si>
-  <si>
-    <t>종합주가지수/KOSPI</t>
-  </si>
-  <si>
-    <t>자기자본수익률/ROE</t>
-  </si>
-  <si>
     <t>Return On Equity의 줄임말로, 투입한 자기자본이 얼마만큼의 이익을 냈는지 알려주는 지표입니다. 우선주배당을 공제한 후 보통주 소유자에게 귀속되는 순이익을 보통주자기자본으로 나누어 계산한다.</t>
   </si>
   <si>
@@ -634,12 +601,6 @@
   </si>
   <si>
     <t>종류형펀드</t>
-  </si>
-  <si>
-    <t>총보수비용비율/TER</t>
-  </si>
-  <si>
-    <t>홈트레이딩시스템/HTS</t>
   </si>
   <si>
     <t>프로그램매매</t>
@@ -653,6 +614,58 @@
   </si>
   <si>
     <t>PBR이란 주당순자산비율로, 주가를 주당순자산가치로 나눠서 구하며 1주당 순자산을 비교한 수치입니다. PBR이 1인경우 특정 시점의 주가와 기업의 1주당 순자산이 같은 경우를 의미하며 PBR 수치가 낮을수록 해당 기업이 저평가되고 있다고 볼 수 있습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MMF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAV</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELF</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TER</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTI</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스피</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1667,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B24" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1688,10 +1701,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1699,31 +1712,31 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1731,23 +1744,23 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1755,15 +1768,15 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1771,39 +1784,39 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1811,7 +1824,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1819,7 +1832,7 @@
         <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1827,15 +1840,15 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1843,7 +1856,7 @@
         <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1851,7 +1864,7 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1859,23 +1872,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1883,23 +1896,23 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1907,7 +1920,7 @@
         <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1915,39 +1928,39 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1955,7 +1968,7 @@
         <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1963,15 +1976,15 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1979,23 +1992,23 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="7" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2003,7 +2016,7 @@
         <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2011,47 +2024,47 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2059,15 +2072,15 @@
         <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2075,7 +2088,7 @@
         <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="2" customFormat="1">
@@ -2083,15 +2096,15 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="2" customFormat="1">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2099,15 +2112,15 @@
         <v>40</v>
       </c>
       <c r="B53" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2115,31 +2128,31 @@
         <v>25</v>
       </c>
       <c r="B55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2147,7 +2160,7 @@
         <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2155,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2163,7 +2176,7 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2171,63 +2184,63 @@
         <v>30</v>
       </c>
       <c r="B62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2235,31 +2248,31 @@
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2267,15 +2280,15 @@
         <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2283,31 +2296,31 @@
         <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="B77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B79" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2315,23 +2328,23 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2339,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2347,7 +2360,7 @@
         <v>32</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2355,7 +2368,7 @@
         <v>35</v>
       </c>
       <c r="B85" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2363,15 +2376,15 @@
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2379,7 +2392,7 @@
         <v>1</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2387,23 +2400,23 @@
         <v>16</v>
       </c>
       <c r="B89" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2411,7 +2424,7 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2419,7 +2432,7 @@
         <v>39</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2427,7 +2440,7 @@
         <v>19</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2435,7 +2448,7 @@
         <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2443,7 +2456,7 @@
         <v>36</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2451,39 +2464,39 @@
         <v>4</v>
       </c>
       <c r="B97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B98" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2491,15 +2504,15 @@
         <v>46</v>
       </c>
       <c r="B102" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="5" customFormat="1">
       <c r="A103" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="5" customFormat="1">
@@ -2507,15 +2520,15 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
